--- a/仕様/流れ.xlsx
+++ b/仕様/流れ.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
     <sheet name="アップグレード表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="アイテム表" sheetId="4" r:id="rId3"/>
+    <sheet name="操作方法" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1 (3)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -66,28 +68,160 @@
     <t>レベル５</t>
   </si>
   <si>
-    <t>『腕立て伏せ』
-Atk+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『魔法の勉強』
-Mat+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『防御魔法の練習』
-Mdf+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ランニング』
-Spd×1.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『暗記テスト』
-獲得経験値+1</t>
+    <t>極</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSRPG アイテム表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSRPG 操作方法表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムキムキビタミン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復草</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カチカチン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『完全隠密』
+４秒間その場に立ち止まると
+透明になる
+透明解除後、3秒間与ダメージ2倍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果時間(秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを即時で30回復する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与ダメージを1.5倍にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメージを1.5倍にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミエルンデス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手プレイヤー全員の位置をマップに表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スティック系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右のボタン系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法照準　ボタンを離して発射</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下に要追記</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避行動(前転)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの移動、照準移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジカルボム』
+Mat+5
+着弾時爆発する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計+値</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -97,57 +231,170 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>『ビルドアップ』
+    <t>『電光石火』
+Spd×1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『無影』
+回避距離の増加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『疾走』
+Spd×1.25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『陽炎』
+回避時無敵時間増加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『そよ風』
+Spd×1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ガードアップ』
+Def+5
+HP+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ロックウォール』
 Def+5
 HP+10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>極</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『スリーウェイアロー』
-Mat+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『魔力の増幅』
-Mat+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『武器の素振り』
-Atk+5
-攻撃速度加速</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『スウェイ練習』
-回避時無敵時間増加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『腹筋』
-Def+5
-HP+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『盗賊の極意』
-プレイヤー討伐時経験値+50
-大型討伐時経験値+50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『騎士道精神』
+    <t>『アイアンシールド』
+Def+10
+HP+15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ザ・フォートレス』
 回避がガードに変更
 一定時間ダメージ半減
 攻撃した相手を怯ませる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『メタルボディ』
+Def+10
+HP+20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『頑強の意思』
+攻撃を受けても
+怯みにくくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックショット』
+Mat+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『メテオバースト』
+魔法攻撃が三方向に増える
+Mat+15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『クイックスラッシュ』
+Atk+5
+攻撃速度加速</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ウエポンアタック』
+Atk+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『盗賊の極意』
+武器攻撃がヒットしたら経験値を2獲得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『大物狙い』
+プレイヤー討伐時経験値+25
+大型討伐時経験値+25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ねこばば』
+５秒ごとに経験値+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『物覚え』
+獲得経験値+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『薬の知識』
+アイテムの効果が強化される
+Mdf+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ラッキーヒット』
+25％の確率で獲得経験値+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D+30　HP+50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マギカチャージ』
+Mat+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックガード』
+Mdf+5
+HP+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ミラーコーティング』
+Mdf+10
+HP+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『リフレクションメイル』
+Mdf+10
+HP+15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D+30　HP+30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『』</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ホーリーザレクション』
+2秒每HP3回復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ルーンエンハンス』
+詠唱速度が短くなる
+Mat+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ヘビースマッシュ』
+Atk+15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -194,7 +441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -472,11 +719,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -492,9 +761,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -516,9 +782,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -548,6 +811,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2303,27 +2588,27 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -2352,11 +2637,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2364,147 +2649,203 @@
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
     <col min="7" max="7" width="25.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2">
         <v>42646</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>24</v>
+      <c r="B4" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="21" t="s">
+      <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>27</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -2519,13 +2860,273 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="29"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="31">
+        <v>30</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様/流れ.xlsx
+++ b/仕様/流れ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>回復草</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>強化</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>補助</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相手プレイヤー全員の位置をマップに表示</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,12 +204,6 @@
   </si>
   <si>
     <t>キャラクターの移動、照準移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マジカルボム』
-Mat+5
-着弾時爆発する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -304,17 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>『クイックスラッシュ』
-Atk+5
-攻撃速度加速</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ウエポンアタック』
-Atk+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>『盗賊の極意』
 武器攻撃がヒットしたら経験値を2獲得</t>
     <phoneticPr fontId="1"/>
@@ -336,65 +311,290 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>『マギカチャージ』
+Mat+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックガード』
+Mdf+5
+HP+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ミラーコーティング』
+Mdf+10
+HP+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ルーンエンハンス』
+詠唱速度が短くなる
+Mat+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ラーニング』
+獲得経験値+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ラッキーヒット』
+25％の確率で獲得経験値+3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『デュアルバリアー』
+Mdf+10
+Def+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『疾風斬り』
+Atk+5
+攻撃速度加速</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『踏み込み斬り』
+Atk+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『重撃』
+Atk+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>『薬の知識』
 アイテムの効果が強化される
 Mdf+5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>『ラッキーヒット』
-25％の確率で獲得経験値+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D+30　HP+50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マギカチャージ』
-Mat+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マジックガード』
+    <t>『マギカマッシブ』
 Mdf+5
-HP+5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ミラーコーティング』
-Mdf+10
 HP+10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>『リフレクションメイル』
-Mdf+10
-HP+15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D+30　HP+30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『』</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ホーリーザレクション』
+    <t>『魔力の刃』
+Atk+10
+Mat+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ホーリーリザレクション』
 2秒每HP3回復</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>『ルーンエンハンス』
-詠唱速度が短くなる
-Mat+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ヘビースマッシュ』
-Atk+15</t>
+    <t>『怒りの一撃』
+攻撃を受けてから
+３秒間攻撃力が1.5倍
+Atk+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『豪傑の証』
+Atk+10
+Def+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Atk+50 Mat+5 Def+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジカルボム』
+Mat+10
+着弾時爆発する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mat+55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Def+30　HP+50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mdf+35　HP+30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spd*1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右スティック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左のボタン系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十字キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持アイテム使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガー系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルアップメニューの表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押している間スコア表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すっぴん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラフイラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村の青年のイメージ
+いかにも、新米感を出したいです。
+言わば無職なので逆に尖った特徴は
+出さないほうが好ましいです。
+キーワード
+勇敢、初々しい、活発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すっぴん君が一皮むけた姿です。
+前衛職で、バリバリ動き回るので
+ゴリゴリの鎧よりも軽めの鎧(胸当てなど)で武装します。
+剣は他の武器よりも大きめです。
+キーワード
+勇ましい、猪突猛進、力強い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王道の魔法使いです。
+三角帽子に木の杖と装備も、
+ひと目でわかる魔法使いにしてください。
+マジカルっぽさ(星やキラキラ)を出してください。
+キーワード
+マジカル、賑やか、派手</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すっぴん君がガチガチの鎧を身に纏っています。
+背にはマントをたなびかせ、いかにも硬そう、頼りになる感を
+出して欲しいです。
+ガチガチの鎧とは言いますが、フルフェイスヘルムではなく
+顔はしっかり出してください。
+キーワード
+硬い、正々堂々、重い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フードマントを身にまとい、聖職者の装いをしています。
+服に大きな十字架を描いてください。
+イメージは白魔道士に近いです。
+フードはアサシンでも使用しているので、
+身につけない(後ろに垂らす)ようお願いします。
+フードマント以外ならば、頭に縦長帽子を被るようにしても
+構いません。
+イメージ
+優しい、光、慈悲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度・極　アサシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理攻撃・極　ファイター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃・極　マジシャン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理防御・極　ナイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法防御・極　プリースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フードとマスクで顔を隠し、相手を影から襲いかかる事に
+趣を置いたすっぴん君です。
+街を縦横無尽に駆け巡る身軽さ、そして相手を一撃げ葬る残忍さを
+アピールできたら最高です！
+腕とか足にナイフを隠しているのもありです
+キーワード
+闇、隠密、残忍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値・極　シーフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全極職業の見た目の中で、最も身軽な姿です。
+頭にバンダナを巻き、タンクトップにニッカボッカと
+海賊にも似たような見た目です。
+背中に袋を背負ってみるのもありです！
+キーワード
+いたずら、すばしっこい、悪ガキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化</t>
+  </si>
+  <si>
+    <t>補助</t>
+  </si>
+  <si>
+    <t>HP+30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -441,7 +641,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -732,20 +932,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left/>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -756,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -781,9 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -795,6 +1059,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,28 +1082,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2293,6 +2595,97 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1345406</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661054</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3214687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="12533" b="19060"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2035969" y="10501312"/>
+          <a:ext cx="2566054" cy="3119438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1716122</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3429001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="30712" t="13850" r="14596" b="20100"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7989094" y="18526125"/>
+          <a:ext cx="1525622" cy="3274220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2588,27 +2981,27 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -2637,58 +3030,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.125" customWidth="1"/>
     <col min="7" max="7" width="25.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2699,172 +3092,385 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="F8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11">
-        <v>1.5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" ht="266.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="2:7" ht="260.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="2:7" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="2:7" ht="294" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="2:7" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="2:7" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="27"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="29">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2875,125 +3481,138 @@
     <col min="6" max="6" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="31">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="29">
+        <v>15</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="29">
+        <v>15</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="29">
         <v>30</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F6" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7">
+      <formula1>"回復,強化,補助"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3001,92 +3620,163 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="26" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="E4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="E6" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E7" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C10" s="31"/>
+      <c r="E10" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="26" t="s">
+      <c r="C11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="C12" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
+      <c r="C14" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,20 +3796,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様/流れ.xlsx
+++ b/仕様/流れ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -1067,55 +1067,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1136,6 +1094,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2680,6 +2680,92 @@
         <a:xfrm>
           <a:off x="7989094" y="18526125"/>
           <a:ext cx="1525622" cy="3274220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1244203</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3156335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-688" t="21672" r="688" b="8669"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1934766" y="6770011"/>
+          <a:ext cx="2446734" cy="3030012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>821530</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>983349</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3250406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="37405" r="4672" b="23532"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6655593" y="6783880"/>
+          <a:ext cx="4269475" cy="3110214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,20 +3074,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -3032,9 +3118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3049,20 +3135,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
@@ -3206,7 +3292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -3251,211 +3337,211 @@
     </row>
     <row r="13" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="2:7" ht="266.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="28"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="2:7" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="39"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="2:7" ht="260.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="28"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="2:7" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="37" t="s">
+      <c r="D25" s="44"/>
+      <c r="E25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="28"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="2:7" ht="294" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="2:7" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="2:7" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3482,36 +3568,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3519,19 +3605,19 @@
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3539,19 +3625,19 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="20">
         <v>15</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3559,19 +3645,19 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="20">
         <v>15</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3579,29 +3665,29 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="20">
         <v>30</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3622,7 +3708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
@@ -3636,106 +3722,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="51"/>
+      <c r="E4" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="E6" s="32" t="s">
+      <c r="C6" s="24"/>
+      <c r="E6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="E10" s="30" t="s">
+      <c r="C10" s="51"/>
+      <c r="E10" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
@@ -3743,31 +3829,31 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3796,20 +3882,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
